--- a/public/uploads/excel/awb.xlsx
+++ b/public/uploads/excel/awb.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eslam\Documents\GitHub\UFS-Back\public\uploads\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\UFS-Back\public\uploads\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8206689-796A-4987-B787-28675635BD29}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15972" windowHeight="5544"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23004" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>is_return</t>
   </si>
@@ -35,9 +36,6 @@
     <t>notes</t>
   </si>
   <si>
-    <t>company_code</t>
-  </si>
-  <si>
     <t>department_code</t>
   </si>
   <si>
@@ -51,12 +49,6 @@
   </si>
   <si>
     <t>service_code</t>
-  </si>
-  <si>
-    <t>city_code</t>
-  </si>
-  <si>
-    <t>area_code</t>
   </si>
   <si>
     <t>weight</t>
@@ -71,7 +63,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -382,31 +374,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.88671875" customWidth="1"/>
-    <col min="2" max="2" width="23.44140625" customWidth="1"/>
-    <col min="3" max="3" width="27.21875" customWidth="1"/>
-    <col min="4" max="4" width="21.5546875" customWidth="1"/>
-    <col min="5" max="5" width="24.88671875" customWidth="1"/>
-    <col min="6" max="6" width="19.44140625" customWidth="1"/>
-    <col min="7" max="7" width="20.77734375" customWidth="1"/>
-    <col min="8" max="8" width="23.5546875" customWidth="1"/>
-    <col min="9" max="9" width="21" customWidth="1"/>
-    <col min="11" max="11" width="19.109375" customWidth="1"/>
-    <col min="12" max="12" width="17.21875" customWidth="1"/>
-    <col min="13" max="13" width="17.5546875" customWidth="1"/>
-    <col min="14" max="14" width="28.33203125" customWidth="1"/>
+    <col min="1" max="1" width="23.44140625" customWidth="1"/>
+    <col min="2" max="2" width="27.21875" customWidth="1"/>
+    <col min="3" max="3" width="21.5546875" customWidth="1"/>
+    <col min="4" max="4" width="24.88671875" customWidth="1"/>
+    <col min="5" max="5" width="19.44140625" customWidth="1"/>
+    <col min="6" max="6" width="21" customWidth="1"/>
+    <col min="8" max="8" width="19.109375" customWidth="1"/>
+    <col min="9" max="9" width="17.21875" customWidth="1"/>
+    <col min="10" max="10" width="17.5546875" customWidth="1"/>
+    <col min="11" max="11" width="28.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -432,21 +421,12 @@
         <v>10</v>
       </c>
       <c r="I1" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="J1" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="K1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L1" t="s">
-        <v>0</v>
-      </c>
-      <c r="M1" t="s">
-        <v>1</v>
-      </c>
-      <c r="N1" t="s">
         <v>2</v>
       </c>
     </row>

--- a/public/uploads/excel/awb.xlsx
+++ b/public/uploads/excel/awb.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\UFS-Back\public\uploads\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8206689-796A-4987-B787-28675635BD29}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7B42D21-0C4A-40A8-9E92-17AA98A5278E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23004" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>is_return</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>category_code</t>
+  </si>
+  <si>
+    <t>time</t>
   </si>
 </sst>
 </file>
@@ -375,10 +378,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:L1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -395,7 +398,7 @@
     <col min="11" max="11" width="28.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -428,6 +431,9 @@
       </c>
       <c r="K1" t="s">
         <v>2</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/public/uploads/excel/awb.xlsx
+++ b/public/uploads/excel/awb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\UFS-Back\public\uploads\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7B42D21-0C4A-40A8-9E92-17AA98A5278E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0CA50BB-DE72-42E8-ABED-3169CECFB626}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>is_return</t>
   </si>
@@ -58,9 +58,6 @@
   </si>
   <si>
     <t>category_code</t>
-  </si>
-  <si>
-    <t>time</t>
   </si>
 </sst>
 </file>
@@ -378,10 +375,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -398,7 +395,7 @@
     <col min="11" max="11" width="28.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -431,9 +428,6 @@
       </c>
       <c r="K1" t="s">
         <v>2</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
